--- a/biology/Botanique/Dolcetto_di_Dogliani/Dolcetto_di_Dogliani.xlsx
+++ b/biology/Botanique/Dolcetto_di_Dogliani/Dolcetto_di_Dogliani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  Dolcetto di Dogliani  est un vin italien produit dans la région du Piémont, doté d'une appellation DOC depuis le 26 juin 1974. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -513,7 +525,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Coni dans les communes de Dogliani, Bastia Mondovì, Belvedere Langhe, Clavesana, Cigliè, Farigliano, Monchiero, Rocca Cigliè ainsi qu'en partie dans les communes Roddino et Somano. 
 Les vignobles se situent sur des pentes des nombreuses collines  autour de Dogliani, proche du Tanaro.
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis à tendance violacé
 odeur : délicat, caractéristique
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,7 +651,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
 Coni (1990/91) : 16 708,1
